--- a/BufferedIOBenchmark.xlsx
+++ b/BufferedIOBenchmark.xlsx
@@ -12,7 +12,7 @@
     <sheet name="Feuil3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="output" localSheetId="0">Feuil1!$A$1:$E$17</definedName>
+    <definedName name="output_1" localSheetId="0">Feuil1!$A$1:$E$17</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -109,8 +109,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -120,7 +148,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="output_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -413,15 +441,15 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -433,10 +461,10 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
       </c>
       <c r="E1" t="s">
         <v>4</v>
@@ -456,7 +484,7 @@
         <v>10485760</v>
       </c>
       <c r="E2">
-        <v>16</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -473,7 +501,7 @@
         <v>10485760</v>
       </c>
       <c r="E3">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -490,7 +518,7 @@
         <v>10485760</v>
       </c>
       <c r="E4">
-        <v>94</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -507,7 +535,7 @@
         <v>10485760</v>
       </c>
       <c r="E5">
-        <v>203</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -524,7 +552,7 @@
         <v>10485760</v>
       </c>
       <c r="E6">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -541,7 +569,7 @@
         <v>10485760</v>
       </c>
       <c r="E7">
-        <v>344</v>
+        <v>373</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -558,7 +586,7 @@
         <v>10485760</v>
       </c>
       <c r="E8">
-        <v>3316</v>
+        <v>3669</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -575,7 +603,7 @@
         <v>10485760</v>
       </c>
       <c r="E9">
-        <v>14957</v>
+        <v>16204</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -592,7 +620,7 @@
         <v>10485760</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -609,7 +637,7 @@
         <v>10485760</v>
       </c>
       <c r="E11">
-        <v>16</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -626,7 +654,7 @@
         <v>10485760</v>
       </c>
       <c r="E12">
-        <v>47</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -643,7 +671,7 @@
         <v>10485760</v>
       </c>
       <c r="E13">
-        <v>62</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -660,7 +688,7 @@
         <v>10485760</v>
       </c>
       <c r="E14">
-        <v>31</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -677,7 +705,7 @@
         <v>10485760</v>
       </c>
       <c r="E15">
-        <v>205</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -694,7 +722,7 @@
         <v>10485760</v>
       </c>
       <c r="E16">
-        <v>2016</v>
+        <v>2308</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -711,7 +739,7 @@
         <v>10485760</v>
       </c>
       <c r="E17">
-        <v>9627</v>
+        <v>10054</v>
       </c>
     </row>
   </sheetData>

--- a/BufferedIOBenchmark.xlsx
+++ b/BufferedIOBenchmark.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="192" yWindow="144" windowWidth="14628" windowHeight="7440"/>
+    <workbookView xWindow="192" yWindow="156" windowWidth="14628" windowHeight="7440"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
   <definedNames>
     <definedName name="output_1" localSheetId="0">Feuil1!$A$1:$E$17</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="12">
   <si>
     <t>Operation</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>BlockSize</t>
-  </si>
-  <si>
-    <t>DurationInMs</t>
   </si>
   <si>
     <t>WRITE</t>
@@ -68,6 +65,12 @@
   </si>
   <si>
     <t>READ</t>
+  </si>
+  <si>
+    <t>DurationInMs - with buffer</t>
+  </si>
+  <si>
+    <t>DurationInMs - without buffer</t>
   </si>
 </sst>
 </file>
@@ -145,6 +148,631 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t>Duration of WRITING 10 MB of random data into file using buffered and unbuffered streams</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15948194463211599"/>
+          <c:y val="0.26001267082993929"/>
+          <c:w val="0.51496965701250674"/>
+          <c:h val="0.62698538802052717"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DurationInMs - with buffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>175</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DurationInMs - without buffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$C$2:$C$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$2:$F$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3669</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16204</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="547116544"/>
+        <c:axId val="77833920"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="547116544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>BlockSize in bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77833920"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77833920"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="547116544"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74093546419022116"/>
+          <c:y val="0.27388179925785139"/>
+          <c:w val="0.17951201191365224"/>
+          <c:h val="0.56095290172061829"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-CH"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="fr-CH" baseline="0"/>
+              <a:t>Duration of READING 10 MB of random data into file using buffered and unbuffered streams</a:t>
+            </a:r>
+            <a:endParaRPr lang="fr-CH"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.15948194463211599"/>
+          <c:y val="0.26001267082993929"/>
+          <c:w val="0.51496965701250674"/>
+          <c:h val="0.62698538802052717"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DurationInMs - with buffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$E$10:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Feuil1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DurationInMs - without buffer</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>Feuil1!$C$10:$C$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Feuil1!$F$10:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2308</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10054</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="547117568"/>
+        <c:axId val="77836224"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="547117568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>BlockSize in bytes</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77836224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77836224"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="fr-CH"/>
+                  <a:t>Duration [ms]</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="547117568"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.74093546419022116"/>
+          <c:y val="0.28001206745708507"/>
+          <c:w val="0.16962095806666913"/>
+          <c:h val="0.57981862612001089"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>295274</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Graphique 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Graphique 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -438,22 +1066,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.5546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.88671875" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -467,15 +1095,18 @@
         <v>2</v>
       </c>
       <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
       </c>
       <c r="C2">
         <v>500</v>
@@ -486,13 +1117,16 @@
       <c r="E2">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
       </c>
       <c r="C3">
         <v>50</v>
@@ -503,13 +1137,16 @@
       <c r="E3">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F3">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
         <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
       </c>
       <c r="C4">
         <v>5</v>
@@ -520,13 +1157,16 @@
       <c r="E4">
         <v>71</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F4">
+        <v>3669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -537,13 +1177,16 @@
       <c r="E5">
         <v>175</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F5">
+        <v>16204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6">
         <v>500</v>
@@ -555,12 +1198,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -572,12 +1215,12 @@
         <v>373</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>5</v>
@@ -589,12 +1232,12 @@
         <v>3669</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -606,12 +1249,12 @@
         <v>16204</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10">
         <v>500</v>
@@ -622,13 +1265,16 @@
       <c r="E10">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F10">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11">
         <v>50</v>
@@ -639,13 +1285,16 @@
       <c r="E11">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F11">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>5</v>
@@ -656,13 +1305,16 @@
       <c r="E12">
         <v>34</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F12">
+        <v>2308</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -673,13 +1325,16 @@
       <c r="E13">
         <v>85</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F13">
+        <v>10054</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14">
         <v>500</v>
@@ -691,12 +1346,12 @@
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15">
         <v>50</v>
@@ -708,12 +1363,12 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16">
         <v>5</v>
@@ -727,10 +1382,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>0</v>
@@ -744,6 +1399,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
